--- a/PROJEK AKHIR KITA SEBELUM UTS/6Data yang Digunakan.xlsx
+++ b/PROJEK AKHIR KITA SEBELUM UTS/6Data yang Digunakan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah 6\ProjekBersama\PROJEK AKHIR KITA SEBELUM UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33130462-8335-4865-B7A6-0F683873D907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E74157-6A12-4673-B6C2-7E695666C9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1D4432DA-8940-4A3C-BD6F-9DB6575A1D05}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{1D4432DA-8940-4A3C-BD6F-9DB6575A1D05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabel Data yg Digunakan" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabel Data Sebelum Seleksi Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -169,6 +170,36 @@
   </si>
   <si>
     <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Tabel Data yang Digunakan</t>
+  </si>
+  <si>
+    <t>Selly Oktaviani</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Ari Hilda Mawaddah</t>
+  </si>
+  <si>
+    <t>Anggi</t>
+  </si>
+  <si>
+    <t>Daffa Fajri Riesaputri</t>
+  </si>
+  <si>
+    <t>Jang Hansol</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -178,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +227,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -421,11 +460,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -478,6 +526,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B434D-27D8-4AC5-B032-DCEE712B253B}">
-  <dimension ref="B1:M23"/>
+  <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +863,7 @@
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -822,131 +873,106 @@
     <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="10">
-        <v>20</v>
-      </c>
-      <c r="H3" s="17">
-        <v>43909</v>
-      </c>
-      <c r="I3" s="10">
-        <v>15</v>
-      </c>
-      <c r="J3" s="10">
-        <v>5</v>
-      </c>
-      <c r="K3" s="10">
-        <v>5</v>
-      </c>
-      <c r="L3" s="10">
-        <f>J3-K3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <f>K3/J3*100</f>
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10">
         <v>20</v>
       </c>
       <c r="H4" s="17">
         <v>43909</v>
       </c>
-      <c r="I4" s="11">
-        <v>15</v>
-      </c>
-      <c r="J4" s="11">
-        <v>5</v>
-      </c>
-      <c r="K4" s="11">
-        <v>4</v>
-      </c>
-      <c r="L4" s="11">
-        <f t="shared" ref="L4:L16" si="0">J4-K4</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="14">
+      <c r="I4" s="10">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5</v>
+      </c>
+      <c r="K4" s="10">
+        <v>5</v>
+      </c>
+      <c r="L4" s="10">
+        <f>J4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
         <f>K4/J4*100</f>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>25</v>
@@ -955,7 +981,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="11">
         <v>20</v>
@@ -970,152 +996,152 @@
         <v>5</v>
       </c>
       <c r="K5" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" s="11">
+        <f t="shared" ref="L5:L17" si="0">J5-K5</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="14">
+        <f>K5/J5*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="11">
+        <v>20</v>
+      </c>
+      <c r="H6" s="17">
+        <v>43909</v>
+      </c>
+      <c r="I6" s="11">
+        <v>15</v>
+      </c>
+      <c r="J6" s="11">
+        <v>5</v>
+      </c>
+      <c r="K6" s="11">
+        <v>5</v>
+      </c>
+      <c r="L6" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="14">
-        <f t="shared" ref="M5:M16" si="1">K5/J5*100</f>
+      <c r="M6" s="14">
+        <f t="shared" ref="M6:M17" si="1">K6/J6*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="11">
-        <v>20</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G7" s="11">
+        <v>20</v>
+      </c>
+      <c r="H7" s="17">
         <v>43923</v>
       </c>
-      <c r="I6" s="11">
-        <v>15</v>
-      </c>
-      <c r="J6" s="11">
-        <v>5</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="I7" s="11">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5</v>
+      </c>
+      <c r="K7" s="11">
         <v>4</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M7" s="14">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11">
-        <v>20</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G8" s="11">
+        <v>20</v>
+      </c>
+      <c r="H8" s="17">
         <v>43923</v>
       </c>
-      <c r="I7" s="11">
-        <v>15</v>
-      </c>
-      <c r="J7" s="11">
-        <v>5</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="I8" s="11">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11">
         <v>2</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M8" s="14">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="11">
-        <v>20</v>
-      </c>
-      <c r="H8" s="17">
-        <v>43924</v>
-      </c>
-      <c r="I8" s="11">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11">
-        <v>5</v>
-      </c>
-      <c r="K8" s="11">
-        <v>5</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="11">
         <v>20</v>
@@ -1143,10 +1169,10 @@
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>25</v>
@@ -1155,7 +1181,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G10" s="11">
         <v>20</v>
@@ -1183,10 +1209,10 @@
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>25</v>
@@ -1195,13 +1221,13 @@
         <v>28</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="11">
         <v>20</v>
       </c>
       <c r="H11" s="17">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="I11" s="11">
         <v>15</v>
@@ -1223,19 +1249,19 @@
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G12" s="11">
         <v>20</v>
@@ -1263,25 +1289,25 @@
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="11">
         <v>20</v>
       </c>
       <c r="H13" s="17">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="I13" s="11">
         <v>15</v>
@@ -1290,32 +1316,32 @@
         <v>5</v>
       </c>
       <c r="K13" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="14">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G14" s="11">
         <v>20</v>
@@ -1330,38 +1356,38 @@
         <v>5</v>
       </c>
       <c r="K14" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G15" s="11">
         <v>20</v>
       </c>
       <c r="H15" s="17">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="I15" s="11">
         <v>15</v>
@@ -1370,76 +1396,100 @@
         <v>5</v>
       </c>
       <c r="K15" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L15" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="14">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="12">
-        <v>20</v>
-      </c>
-      <c r="H16" s="18">
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="11">
+        <v>20</v>
+      </c>
+      <c r="H16" s="17">
         <v>43927</v>
       </c>
-      <c r="I16" s="12">
-        <v>15</v>
-      </c>
-      <c r="J16" s="12">
-        <v>5</v>
-      </c>
-      <c r="K16" s="12">
+      <c r="I16" s="11">
+        <v>15</v>
+      </c>
+      <c r="J16" s="11">
+        <v>5</v>
+      </c>
+      <c r="K16" s="11">
         <v>2</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="14">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="12">
+        <v>20</v>
+      </c>
+      <c r="H17" s="18">
+        <v>43927</v>
+      </c>
+      <c r="I17" s="12">
+        <v>15</v>
+      </c>
+      <c r="J17" s="12">
+        <v>5</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="11"/>
@@ -1455,7 +1505,7 @@
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="11"/>
@@ -1471,7 +1521,7 @@
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="11"/>
@@ -1487,7 +1537,7 @@
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="11"/>
@@ -1503,54 +1553,921 @@
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
-        <v>20</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="3">
-        <f>SUM(J3:J16)</f>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="3">
+        <f>SUM(J4:J17)</f>
         <v>70</v>
       </c>
-      <c r="K23" s="3">
-        <f>SUM(K3:K16)</f>
+      <c r="K24" s="3">
+        <f>SUM(K4:K17)</f>
         <v>58</v>
       </c>
-      <c r="L23" s="3">
-        <f>SUM(L3:L16)</f>
+      <c r="L24" s="3">
+        <f>SUM(L4:L17)</f>
         <v>12</v>
       </c>
-      <c r="M23" s="16">
-        <f>AVERAGE(M3:M16)</f>
+      <c r="M24" s="16">
+        <f>AVERAGE(M4:M17)</f>
         <v>82.857142857142861</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B23:I23"/>
+  <mergeCells count="2">
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F84C56-108C-4A98-84FB-69BE1096F37E}">
+  <dimension ref="B2:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10">
+        <v>20</v>
+      </c>
+      <c r="H4" s="17">
+        <v>43909</v>
+      </c>
+      <c r="I4" s="10">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5</v>
+      </c>
+      <c r="K4" s="10">
+        <v>5</v>
+      </c>
+      <c r="L4" s="10">
+        <f>J4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <f>K4/J4*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="11">
+        <v>20</v>
+      </c>
+      <c r="H5" s="17">
+        <v>43909</v>
+      </c>
+      <c r="I5" s="11">
+        <v>15</v>
+      </c>
+      <c r="J5" s="11">
+        <v>5</v>
+      </c>
+      <c r="K5" s="11">
+        <v>4</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L17" si="0">J5-K5</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="14">
+        <f>K5/J5*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="11">
+        <v>20</v>
+      </c>
+      <c r="H6" s="17">
+        <v>43909</v>
+      </c>
+      <c r="I6" s="11">
+        <v>15</v>
+      </c>
+      <c r="J6" s="11">
+        <v>5</v>
+      </c>
+      <c r="K6" s="11">
+        <v>5</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" ref="M6:M17" si="1">K6/J6*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11">
+        <v>20</v>
+      </c>
+      <c r="H7" s="17">
+        <v>43923</v>
+      </c>
+      <c r="I7" s="11">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5</v>
+      </c>
+      <c r="K7" s="11">
+        <v>4</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="11">
+        <v>20</v>
+      </c>
+      <c r="H8" s="17">
+        <v>43923</v>
+      </c>
+      <c r="I8" s="11">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="11">
+        <v>20</v>
+      </c>
+      <c r="H9" s="17">
+        <v>43924</v>
+      </c>
+      <c r="I9" s="11">
+        <v>15</v>
+      </c>
+      <c r="J9" s="11">
+        <v>5</v>
+      </c>
+      <c r="K9" s="11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="11">
+        <v>20</v>
+      </c>
+      <c r="H10" s="17">
+        <v>43924</v>
+      </c>
+      <c r="I10" s="11">
+        <v>15</v>
+      </c>
+      <c r="J10" s="11">
+        <v>5</v>
+      </c>
+      <c r="K10" s="11">
+        <v>5</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="11">
+        <v>20</v>
+      </c>
+      <c r="H11" s="17">
+        <v>43924</v>
+      </c>
+      <c r="I11" s="11">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>5</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="11">
+        <v>20</v>
+      </c>
+      <c r="H12" s="17">
+        <v>43926</v>
+      </c>
+      <c r="I12" s="11">
+        <v>15</v>
+      </c>
+      <c r="J12" s="11">
+        <v>5</v>
+      </c>
+      <c r="K12" s="11">
+        <v>5</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="11">
+        <v>20</v>
+      </c>
+      <c r="H13" s="17">
+        <v>43926</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15</v>
+      </c>
+      <c r="J13" s="11">
+        <v>5</v>
+      </c>
+      <c r="K13" s="11">
+        <v>5</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="11">
+        <v>20</v>
+      </c>
+      <c r="H14" s="17">
+        <v>43925</v>
+      </c>
+      <c r="I14" s="11">
+        <v>15</v>
+      </c>
+      <c r="J14" s="11">
+        <v>5</v>
+      </c>
+      <c r="K14" s="11">
+        <v>4</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="11">
+        <v>20</v>
+      </c>
+      <c r="H15" s="17">
+        <v>43925</v>
+      </c>
+      <c r="I15" s="11">
+        <v>15</v>
+      </c>
+      <c r="J15" s="11">
+        <v>5</v>
+      </c>
+      <c r="K15" s="11">
+        <v>5</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="11">
+        <v>20</v>
+      </c>
+      <c r="H16" s="17">
+        <v>43927</v>
+      </c>
+      <c r="I16" s="11">
+        <v>15</v>
+      </c>
+      <c r="J16" s="11">
+        <v>5</v>
+      </c>
+      <c r="K16" s="11">
+        <v>2</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="12">
+        <v>20</v>
+      </c>
+      <c r="H17" s="18">
+        <v>43927</v>
+      </c>
+      <c r="I17" s="12">
+        <v>15</v>
+      </c>
+      <c r="J17" s="12">
+        <v>5</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="11">
+        <v>20</v>
+      </c>
+      <c r="H18" s="20">
+        <v>43928</v>
+      </c>
+      <c r="I18" s="12">
+        <v>15</v>
+      </c>
+      <c r="J18" s="12">
+        <v>5</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="11">
+        <v>20</v>
+      </c>
+      <c r="H19" s="20">
+        <v>43928</v>
+      </c>
+      <c r="I19" s="12">
+        <v>15</v>
+      </c>
+      <c r="J19" s="12">
+        <v>5</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="11">
+        <v>20</v>
+      </c>
+      <c r="H20" s="20">
+        <v>43928</v>
+      </c>
+      <c r="I20" s="12">
+        <v>15</v>
+      </c>
+      <c r="J20" s="12">
+        <v>5</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="11">
+        <v>20</v>
+      </c>
+      <c r="H21" s="20">
+        <v>43928</v>
+      </c>
+      <c r="I21" s="12">
+        <v>15</v>
+      </c>
+      <c r="J21" s="12">
+        <v>5</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="11">
+        <v>20</v>
+      </c>
+      <c r="H22" s="20">
+        <v>43929</v>
+      </c>
+      <c r="I22" s="12">
+        <v>15</v>
+      </c>
+      <c r="J22" s="12">
+        <v>5</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="3">
+        <f>SUM(J4:J17)</f>
+        <v>70</v>
+      </c>
+      <c r="K24" s="3">
+        <f>SUM(K4:K17)</f>
+        <v>58</v>
+      </c>
+      <c r="L24" s="3">
+        <f>SUM(L4:L17)</f>
+        <v>12</v>
+      </c>
+      <c r="M24" s="16">
+        <f>AVERAGE(M4:M17)</f>
+        <v>82.857142857142861</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B24:I24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PROJEK AKHIR KITA SEBELUM UTS/6Data yang Digunakan.xlsx
+++ b/PROJEK AKHIR KITA SEBELUM UTS/6Data yang Digunakan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah 6\ProjekBersama\PROJEK AKHIR KITA SEBELUM UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E74157-6A12-4673-B6C2-7E695666C9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F60BAB-D194-473E-9056-8583BC0901B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{1D4432DA-8940-4A3C-BD6F-9DB6575A1D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1D4432DA-8940-4A3C-BD6F-9DB6575A1D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel Data yg Digunakan" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Ronal Venas</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -852,9 +858,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B434D-27D8-4AC5-B032-DCEE712B253B}">
+  <dimension ref="B2:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="10">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5</v>
+      </c>
+      <c r="I4" s="13">
+        <f>H4/G4*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="11">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4</v>
+      </c>
+      <c r="I5" s="14">
+        <f>H5/G5*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="11">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" ref="I6:I23" si="0">H6/G6*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="11">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="11">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="11">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <v>5</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="11">
+        <v>15</v>
+      </c>
+      <c r="G12" s="11">
+        <v>5</v>
+      </c>
+      <c r="H12" s="11">
+        <v>5</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11">
+        <v>15</v>
+      </c>
+      <c r="G13" s="11">
+        <v>5</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="11">
+        <v>15</v>
+      </c>
+      <c r="G14" s="11">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11">
+        <v>4</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11">
+        <v>15</v>
+      </c>
+      <c r="G15" s="11">
+        <v>5</v>
+      </c>
+      <c r="H15" s="11">
+        <v>5</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="11">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11">
+        <v>5</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="12">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12">
+        <v>5</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="12">
+        <v>15</v>
+      </c>
+      <c r="G18" s="12">
+        <v>5</v>
+      </c>
+      <c r="H18" s="11">
+        <v>4</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="12">
+        <v>15</v>
+      </c>
+      <c r="G19" s="12">
+        <v>5</v>
+      </c>
+      <c r="H19" s="11">
+        <v>5</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="12">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12">
+        <v>5</v>
+      </c>
+      <c r="H20" s="11">
+        <v>4</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="12">
+        <v>15</v>
+      </c>
+      <c r="G21" s="12">
+        <v>5</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="12">
+        <v>15</v>
+      </c>
+      <c r="G22" s="12">
+        <v>5</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="22">
+        <v>15</v>
+      </c>
+      <c r="G23" s="22">
+        <v>5</v>
+      </c>
+      <c r="H23" s="22">
+        <v>5</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="3">
+        <f>SUM(G4:G17)</f>
+        <v>70</v>
+      </c>
+      <c r="H24" s="3">
+        <f>SUM(H4:H23)</f>
+        <v>79</v>
+      </c>
+      <c r="I24" s="16">
+        <f>AVERAGE(I4:I23)</f>
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F84C56-108C-4A98-84FB-69BE1096F37E}">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -999,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" ref="L5:L17" si="0">J5-K5</f>
+        <f t="shared" ref="L5:L23" si="0">J5-K5</f>
         <v>1</v>
       </c>
       <c r="M5" s="14">
@@ -1043,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="14">
-        <f t="shared" ref="M6:M17" si="1">K6/J6*100</f>
+        <f t="shared" ref="M6:M23" si="1">K6/J6*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1491,97 +2126,241 @@
       <c r="B18" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="14"/>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="11">
+        <v>20</v>
+      </c>
+      <c r="H18" s="20">
+        <v>43928</v>
+      </c>
+      <c r="I18" s="12">
+        <v>15</v>
+      </c>
+      <c r="J18" s="12">
+        <v>5</v>
+      </c>
+      <c r="K18" s="11">
+        <v>4</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="14"/>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="11">
+        <v>20</v>
+      </c>
+      <c r="H19" s="20">
+        <v>43928</v>
+      </c>
+      <c r="I19" s="12">
+        <v>15</v>
+      </c>
+      <c r="J19" s="12">
+        <v>5</v>
+      </c>
+      <c r="K19" s="11">
+        <v>5</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="14"/>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="11">
+        <v>20</v>
+      </c>
+      <c r="H20" s="20">
+        <v>43928</v>
+      </c>
+      <c r="I20" s="12">
+        <v>15</v>
+      </c>
+      <c r="J20" s="12">
+        <v>5</v>
+      </c>
+      <c r="K20" s="11">
+        <v>4</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="14"/>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="11">
+        <v>20</v>
+      </c>
+      <c r="H21" s="20">
+        <v>43928</v>
+      </c>
+      <c r="I21" s="12">
+        <v>15</v>
+      </c>
+      <c r="J21" s="12">
+        <v>5</v>
+      </c>
+      <c r="K21" s="11">
+        <v>3</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="14"/>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="11">
+        <v>20</v>
+      </c>
+      <c r="H22" s="20">
+        <v>43929</v>
+      </c>
+      <c r="I22" s="12">
+        <v>15</v>
+      </c>
+      <c r="J22" s="12">
+        <v>5</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="15"/>
+      <c r="C23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="22">
+        <v>20</v>
+      </c>
+      <c r="H23" s="23">
+        <v>43929</v>
+      </c>
+      <c r="I23" s="22">
+        <v>15</v>
+      </c>
+      <c r="J23" s="22">
+        <v>5</v>
+      </c>
+      <c r="K23" s="22">
+        <v>5</v>
+      </c>
+      <c r="L23" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
@@ -1599,868 +2378,16 @@
         <v>70</v>
       </c>
       <c r="K24" s="3">
-        <f>SUM(K4:K17)</f>
-        <v>58</v>
+        <f>SUM(K4:K23)</f>
+        <v>79</v>
       </c>
       <c r="L24" s="3">
-        <f>SUM(L4:L17)</f>
-        <v>12</v>
+        <f>SUM(L4:L23)</f>
+        <v>21</v>
       </c>
       <c r="M24" s="16">
-        <f>AVERAGE(M4:M17)</f>
-        <v>82.857142857142861</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B2:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F84C56-108C-4A98-84FB-69BE1096F37E}">
-  <dimension ref="B2:M24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="10">
-        <v>20</v>
-      </c>
-      <c r="H4" s="17">
-        <v>43909</v>
-      </c>
-      <c r="I4" s="10">
-        <v>15</v>
-      </c>
-      <c r="J4" s="10">
-        <v>5</v>
-      </c>
-      <c r="K4" s="10">
-        <v>5</v>
-      </c>
-      <c r="L4" s="10">
-        <f>J4-K4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <f>K4/J4*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="11">
-        <v>20</v>
-      </c>
-      <c r="H5" s="17">
-        <v>43909</v>
-      </c>
-      <c r="I5" s="11">
-        <v>15</v>
-      </c>
-      <c r="J5" s="11">
-        <v>5</v>
-      </c>
-      <c r="K5" s="11">
-        <v>4</v>
-      </c>
-      <c r="L5" s="11">
-        <f t="shared" ref="L5:L17" si="0">J5-K5</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="14">
-        <f>K5/J5*100</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="11">
-        <v>20</v>
-      </c>
-      <c r="H6" s="17">
-        <v>43909</v>
-      </c>
-      <c r="I6" s="11">
-        <v>15</v>
-      </c>
-      <c r="J6" s="11">
-        <v>5</v>
-      </c>
-      <c r="K6" s="11">
-        <v>5</v>
-      </c>
-      <c r="L6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="14">
-        <f t="shared" ref="M6:M17" si="1">K6/J6*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="11">
-        <v>20</v>
-      </c>
-      <c r="H7" s="17">
-        <v>43923</v>
-      </c>
-      <c r="I7" s="11">
-        <v>15</v>
-      </c>
-      <c r="J7" s="11">
-        <v>5</v>
-      </c>
-      <c r="K7" s="11">
-        <v>4</v>
-      </c>
-      <c r="L7" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="14">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="11">
-        <v>20</v>
-      </c>
-      <c r="H8" s="17">
-        <v>43923</v>
-      </c>
-      <c r="I8" s="11">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11">
-        <v>5</v>
-      </c>
-      <c r="K8" s="11">
-        <v>2</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M8" s="14">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="11">
-        <v>20</v>
-      </c>
-      <c r="H9" s="17">
-        <v>43924</v>
-      </c>
-      <c r="I9" s="11">
-        <v>15</v>
-      </c>
-      <c r="J9" s="11">
-        <v>5</v>
-      </c>
-      <c r="K9" s="11">
-        <v>5</v>
-      </c>
-      <c r="L9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="11">
-        <v>20</v>
-      </c>
-      <c r="H10" s="17">
-        <v>43924</v>
-      </c>
-      <c r="I10" s="11">
-        <v>15</v>
-      </c>
-      <c r="J10" s="11">
-        <v>5</v>
-      </c>
-      <c r="K10" s="11">
-        <v>5</v>
-      </c>
-      <c r="L10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="11">
-        <v>20</v>
-      </c>
-      <c r="H11" s="17">
-        <v>43924</v>
-      </c>
-      <c r="I11" s="11">
-        <v>15</v>
-      </c>
-      <c r="J11" s="11">
-        <v>5</v>
-      </c>
-      <c r="K11" s="11">
-        <v>5</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="11">
-        <v>20</v>
-      </c>
-      <c r="H12" s="17">
-        <v>43926</v>
-      </c>
-      <c r="I12" s="11">
-        <v>15</v>
-      </c>
-      <c r="J12" s="11">
-        <v>5</v>
-      </c>
-      <c r="K12" s="11">
-        <v>5</v>
-      </c>
-      <c r="L12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="14">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="11">
-        <v>20</v>
-      </c>
-      <c r="H13" s="17">
-        <v>43926</v>
-      </c>
-      <c r="I13" s="11">
-        <v>15</v>
-      </c>
-      <c r="J13" s="11">
-        <v>5</v>
-      </c>
-      <c r="K13" s="11">
-        <v>5</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="11">
-        <v>20</v>
-      </c>
-      <c r="H14" s="17">
-        <v>43925</v>
-      </c>
-      <c r="I14" s="11">
-        <v>15</v>
-      </c>
-      <c r="J14" s="11">
-        <v>5</v>
-      </c>
-      <c r="K14" s="11">
-        <v>4</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="14">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="11">
-        <v>20</v>
-      </c>
-      <c r="H15" s="17">
-        <v>43925</v>
-      </c>
-      <c r="I15" s="11">
-        <v>15</v>
-      </c>
-      <c r="J15" s="11">
-        <v>5</v>
-      </c>
-      <c r="K15" s="11">
-        <v>5</v>
-      </c>
-      <c r="L15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11">
-        <v>20</v>
-      </c>
-      <c r="H16" s="17">
-        <v>43927</v>
-      </c>
-      <c r="I16" s="11">
-        <v>15</v>
-      </c>
-      <c r="J16" s="11">
-        <v>5</v>
-      </c>
-      <c r="K16" s="11">
-        <v>2</v>
-      </c>
-      <c r="L16" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M16" s="14">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="12">
-        <v>20</v>
-      </c>
-      <c r="H17" s="18">
-        <v>43927</v>
-      </c>
-      <c r="I17" s="12">
-        <v>15</v>
-      </c>
-      <c r="J17" s="12">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12">
-        <v>2</v>
-      </c>
-      <c r="L17" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M17" s="19">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="11">
-        <v>20</v>
-      </c>
-      <c r="H18" s="20">
-        <v>43928</v>
-      </c>
-      <c r="I18" s="12">
-        <v>15</v>
-      </c>
-      <c r="J18" s="12">
-        <v>5</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="11">
-        <v>20</v>
-      </c>
-      <c r="H19" s="20">
-        <v>43928</v>
-      </c>
-      <c r="I19" s="12">
-        <v>15</v>
-      </c>
-      <c r="J19" s="12">
-        <v>5</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="11">
-        <v>20</v>
-      </c>
-      <c r="H20" s="20">
-        <v>43928</v>
-      </c>
-      <c r="I20" s="12">
-        <v>15</v>
-      </c>
-      <c r="J20" s="12">
-        <v>5</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="11">
-        <v>20</v>
-      </c>
-      <c r="H21" s="20">
-        <v>43928</v>
-      </c>
-      <c r="I21" s="12">
-        <v>15</v>
-      </c>
-      <c r="J21" s="12">
-        <v>5</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="11">
-        <v>20</v>
-      </c>
-      <c r="H22" s="20">
-        <v>43929</v>
-      </c>
-      <c r="I22" s="12">
-        <v>15</v>
-      </c>
-      <c r="J22" s="12">
-        <v>5</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9">
-        <v>20</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="3">
-        <f>SUM(J4:J17)</f>
-        <v>70</v>
-      </c>
-      <c r="K24" s="3">
-        <f>SUM(K4:K17)</f>
-        <v>58</v>
-      </c>
-      <c r="L24" s="3">
-        <f>SUM(L4:L17)</f>
-        <v>12</v>
-      </c>
-      <c r="M24" s="16">
-        <f>AVERAGE(M4:M17)</f>
-        <v>82.857142857142861</v>
+        <f>AVERAGE(M4:M23)</f>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/PROJEK AKHIR KITA SEBELUM UTS/6Data yang Digunakan.xlsx
+++ b/PROJEK AKHIR KITA SEBELUM UTS/6Data yang Digunakan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah 6\ProjekBersama\PROJEK AKHIR KITA SEBELUM UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F60BAB-D194-473E-9056-8583BC0901B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C54DA-15E8-4D72-8DBC-2C5A9A673606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1D4432DA-8940-4A3C-BD6F-9DB6575A1D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{1D4432DA-8940-4A3C-BD6F-9DB6575A1D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel Data yg Digunakan" sheetId="1" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B434D-27D8-4AC5-B032-DCEE712B253B}">
   <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1481,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1489,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F84C56-108C-4A98-84FB-69BE1096F37E}">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,5 +2396,6 @@
     <mergeCell ref="B24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PROJEK AKHIR KITA SEBELUM UTS/6Data yang Digunakan.xlsx
+++ b/PROJEK AKHIR KITA SEBELUM UTS/6Data yang Digunakan.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah 6\ProjekBersama\PROJEK AKHIR KITA SEBELUM UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C54DA-15E8-4D72-8DBC-2C5A9A673606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F56599F-8431-482A-B17E-33497B64DB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{1D4432DA-8940-4A3C-BD6F-9DB6575A1D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4" xr2:uid="{1D4432DA-8940-4A3C-BD6F-9DB6575A1D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel Data yg Digunakan" sheetId="1" r:id="rId1"/>
     <sheet name="Tabel Data Sebelum Seleksi Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Glasses" sheetId="3" r:id="rId3"/>
+    <sheet name="noGlasses" sheetId="4" r:id="rId4"/>
+    <sheet name="noGlasses_Glasses" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -206,6 +209,12 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Salah</t>
   </si>
 </sst>
 </file>
@@ -272,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -475,11 +484,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -531,12 +625,34 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B434D-27D8-4AC5-B032-DCEE712B253B}">
   <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" activeCellId="16" sqref="A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7 A8:XFD8 A10:XFD10 A11:XFD11 A12:XFD12 A13:XFD13 A14:XFD14 A15:XFD15 A17:XFD17 A18:XFD18 A19:XFD19 A23:XFD23 A3:XFD3 A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,16 +992,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
@@ -1454,16 +1570,16 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="3">
-        <f>SUM(G4:G17)</f>
-        <v>70</v>
+        <f>SUM(G4:G23)</f>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <f>SUM(H4:H23)</f>
@@ -1489,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F84C56-108C-4A98-84FB-69BE1096F37E}">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,20 +1625,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
@@ -2363,19 +2479,19 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="3">
-        <f>SUM(J4:J17)</f>
-        <v>70</v>
+        <f>SUM(J4:J23)</f>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <f>SUM(K4:K23)</f>
@@ -2398,4 +2514,1328 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917484CD-F1E6-4909-B896-53DF2F577807}">
+  <dimension ref="B1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5</v>
+      </c>
+      <c r="I2" s="36">
+        <f>G2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <f>(H2/G2)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36">
+        <f t="shared" ref="I3:I11" si="0">G3-H3</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J11" si="1">(H3/G3)*100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5</v>
+      </c>
+      <c r="I4" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="11">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>5</v>
+      </c>
+      <c r="I5" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="11">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5</v>
+      </c>
+      <c r="I6" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="11">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3</v>
+      </c>
+      <c r="I7" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5</v>
+      </c>
+      <c r="I8" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="12">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12">
+        <v>5</v>
+      </c>
+      <c r="I9" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="12">
+        <v>15</v>
+      </c>
+      <c r="G10" s="12">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="22">
+        <v>15</v>
+      </c>
+      <c r="G11" s="22">
+        <v>5</v>
+      </c>
+      <c r="H11" s="22">
+        <v>5</v>
+      </c>
+      <c r="I11" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="27">
+        <f>SUM(F2:F11)</f>
+        <v>150</v>
+      </c>
+      <c r="G12" s="3">
+        <f>SUM(G2:G11)</f>
+        <v>50</v>
+      </c>
+      <c r="H12" s="3">
+        <f>AVERAGE(H2:H11)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I12" s="3">
+        <f>AVERAGE(I2:I11)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="16">
+        <f>AVERAGE(J2:J11)</f>
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80CE4D7-C769-4CFE-BCF4-382A5D294BED}">
+  <dimension ref="B1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10">
+        <v>15</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10">
+        <v>5</v>
+      </c>
+      <c r="I2" s="37">
+        <f>G2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <f>(H2/G2)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>5</v>
+      </c>
+      <c r="I3" s="37">
+        <f t="shared" ref="I3:I11" si="0">G3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <f>(H3/G3)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="11">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <f>(H4/G4)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="11">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>5</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <f>(H5/G5)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <f>(H6/G6)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="11">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="13">
+        <f>(H7/G7)*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <f>(H8/G8)*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="12">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5</v>
+      </c>
+      <c r="I9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <f>(H9/G9)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="12">
+        <v>15</v>
+      </c>
+      <c r="G10" s="12">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <v>5</v>
+      </c>
+      <c r="I10" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <f>(H10/G10)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="12">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="13">
+        <f>(H11/G11)*100</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="27">
+        <f>SUM(F2:F11)</f>
+        <v>150</v>
+      </c>
+      <c r="G12" s="3">
+        <f>SUM(G2:G11)</f>
+        <v>50</v>
+      </c>
+      <c r="H12" s="3">
+        <f>AVERAGE(H2:H11)</f>
+        <v>4.3</v>
+      </c>
+      <c r="I12" s="3">
+        <f>AVERAGE(I2:I11)</f>
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="16">
+        <f>AVERAGE(J2:J11)</f>
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4F53-2C27-4D33-8B52-BD548FD6BCCE}">
+  <dimension ref="B1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10">
+        <v>15</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10">
+        <v>5</v>
+      </c>
+      <c r="I2" s="37">
+        <f>G2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <f>(H2/G2)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>4</v>
+      </c>
+      <c r="I3" s="37">
+        <f t="shared" ref="I3:I16" si="0">G3-H3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J16" si="1">(H3/G3)*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="11">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="11">
+        <v>15</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>3</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="12">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>5</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="11">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="11">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5</v>
+      </c>
+      <c r="I9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <v>5</v>
+      </c>
+      <c r="I10" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="11">
+        <v>15</v>
+      </c>
+      <c r="G12" s="11">
+        <v>5</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4</v>
+      </c>
+      <c r="I12" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11">
+        <v>15</v>
+      </c>
+      <c r="G13" s="11">
+        <v>5</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="11">
+        <v>15</v>
+      </c>
+      <c r="G14" s="11">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11">
+        <v>5</v>
+      </c>
+      <c r="I14" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="34">
+        <v>15</v>
+      </c>
+      <c r="G15" s="34">
+        <v>5</v>
+      </c>
+      <c r="H15" s="34">
+        <v>2</v>
+      </c>
+      <c r="I15" s="37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="12">
+        <v>15</v>
+      </c>
+      <c r="G16" s="12">
+        <v>5</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+      <c r="I16" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27">
+        <f>SUM(F2:F16)</f>
+        <v>225</v>
+      </c>
+      <c r="G17" s="27">
+        <f>SUM(G2:G16)</f>
+        <v>75</v>
+      </c>
+      <c r="H17" s="38">
+        <f>AVERAGE(H2:H16)</f>
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="I17" s="38">
+        <f>AVERAGE(I2:I16)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="J17" s="16">
+        <f>AVERAGE(J2:J16)</f>
+        <v>85.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>